--- a/db_tempi_base.xlsx
+++ b/db_tempi_base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcello_galimberti/Documents/Marcello Galimberti/ADI business consulting/Offerte 2023/Ducati 2023/ASC/Simulazione/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA6E2304-7B71-8443-ADFD-BB6AE1282ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC22A3EB-C8E0-E844-BD62-AF5500323CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5940" yWindow="4040" windowWidth="27240" windowHeight="16440" xr2:uid="{D9484E70-F96E-1947-A9DA-4CDFB6BC9734}"/>
   </bookViews>
@@ -453,7 +453,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -575,7 +575,7 @@
         <v>50</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>14.42</v>
       </c>
       <c r="F6">
         <v>80</v>

--- a/db_tempi_base.xlsx
+++ b/db_tempi_base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcello_galimberti/Documents/Marcello Galimberti/ADI business consulting/Offerte 2023/Ducati 2023/ASC/Simulazione/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC22A3EB-C8E0-E844-BD62-AF5500323CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAB5286C-2D54-6F4F-842D-9A78E6635418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="4040" windowWidth="27240" windowHeight="16440" xr2:uid="{D9484E70-F96E-1947-A9DA-4CDFB6BC9734}"/>
+    <workbookView xWindow="5520" yWindow="3240" windowWidth="27240" windowHeight="16440" xr2:uid="{D9484E70-F96E-1947-A9DA-4CDFB6BC9734}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -131,11 +131,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -453,7 +454,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -486,19 +487,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>125</v>
+        <v>199.17</v>
       </c>
       <c r="C2">
-        <v>258</v>
+        <v>258.72000000000003</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>53.8</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>12.29</v>
       </c>
       <c r="F2">
-        <v>60</v>
+        <v>71.11</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -506,19 +507,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>125</v>
+        <v>199.17</v>
       </c>
       <c r="C3">
-        <v>258</v>
+        <v>258.72000000000003</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>53.8</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>12.29</v>
       </c>
       <c r="F3">
-        <v>70</v>
+        <v>86.54</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -526,19 +527,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>125</v>
+        <v>196.49</v>
       </c>
       <c r="C4">
-        <v>258</v>
+        <v>258.72000000000003</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>53.8</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>12.29</v>
       </c>
       <c r="F4">
-        <v>80</v>
+        <v>73.790000000000006</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -546,19 +547,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>125</v>
+        <v>197.49</v>
       </c>
       <c r="C5">
-        <v>258</v>
+        <v>258.72000000000003</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>53.8</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>70</v>
+        <v>73.790000000000006</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -566,39 +567,39 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>125</v>
+        <v>196.49</v>
       </c>
       <c r="C6">
-        <v>258</v>
+        <v>258.72000000000003</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>53.8</v>
       </c>
       <c r="E6">
-        <v>14.42</v>
+        <v>12.29</v>
       </c>
       <c r="F6">
-        <v>80</v>
+        <v>73.790000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>125</v>
+      <c r="B7" s="2">
+        <v>186.7</v>
       </c>
       <c r="C7">
-        <v>258</v>
+        <v>258.72000000000003</v>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>53.8</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>60</v>
+        <v>73.790000000000006</v>
       </c>
     </row>
   </sheetData>
